--- a/Сайфулин_Артем_Ринатович-ДЗ_6.xlsx
+++ b/Сайфулин_Артем_Ринатович-ДЗ_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
   <si>
     <t>№</t>
   </si>
@@ -855,12 +855,21 @@
   <si>
     <t>Проверка удаления товара зарегистрированным пользователем</t>
   </si>
+  <si>
+    <t>Прохождение</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -910,6 +919,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1244,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1361,6 +1378,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1657,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1692,7 +1710,9 @@
       <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="45" t="s">
+        <v>148</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1725,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="44"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1766,7 +1786,9 @@
       <c r="G3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="I3" s="23"/>
       <c r="J3" s="19"/>
       <c r="K3" s="23"/>
@@ -1807,7 +1829,9 @@
       <c r="G4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="I4" s="23"/>
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
@@ -1848,7 +1872,9 @@
       <c r="G5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="48" t="s">
+        <v>150</v>
+      </c>
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="23"/>
@@ -30924,7 +30950,8 @@
       <c r="AA992" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
